--- a/Income/EBAY_inc.xlsx
+++ b/Income/EBAY_inc.xlsx
@@ -1780,16 +1780,16 @@
         <v>0.7613</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.7678</v>
+        <v>0.757</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.769</v>
+        <v>0.7577</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.7645</v>
+        <v>0.752</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.765</v>
+        <v>0.7527</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.7557</v>
@@ -1901,22 +1901,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.2577</v>
+        <v>0.2633</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2534</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2291</v>
+        <v>0.2482</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2139</v>
+        <v>0.2323</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1962</v>
+        <v>0.2132</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1916</v>
+        <v>0.2155</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2299</v>
@@ -2034,16 +2034,16 @@
         <v>0.3288</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2866</v>
+        <v>0.2859</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.251</v>
+        <v>0.246</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2107</v>
+        <v>0.2004</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2125</v>
+        <v>0.2025</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1918</v>
@@ -2161,16 +2161,16 @@
         <v>0.5298</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.5067</v>
+        <v>0.5638</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4976</v>
+        <v>0.5569</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4839</v>
+        <v>0.5444</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1839</v>
+        <v>0.2068</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.2584</v>
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.2106</v>
+        <v>0.2105</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.19</v>
+        <v>0.2115</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.2942</v>
+        <v>0.3292</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.2807</v>
+        <v>0.316</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2668</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3948</v>
@@ -3809,16 +3809,16 @@
         <v>0.3182</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.3181</v>
+        <v>0.3186</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3075</v>
+        <v>0.3068</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2952</v>
+        <v>0.2929</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2911</v>
+        <v>0.2883</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.3058</v>
@@ -3936,16 +3936,16 @@
         <v>0.2261</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.2329</v>
+        <v>0.2592</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3344</v>
+        <v>0.3742</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3263</v>
+        <v>0.3671</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.3207</v>
+        <v>0.3606</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.4592</v>
